--- a/cal/result.xlsx
+++ b/cal/result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/jiashi_tudelft_nl/Documents/thesis/RTL/cal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE86192B-148D-4067-AEE8-F0DB23AD76CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{EE86192B-148D-4067-AEE8-F0DB23AD76CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69D1D4C1-AB48-40FE-8F22-873C85CD375C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{F8AD4177-340F-49AB-AD08-EE9643F79DDC}"/>
   </bookViews>
@@ -16,18 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$P$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$P$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$8:$K$8</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$9:$K$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$1:$P$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$P$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$8:$K$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$9:$K$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$1:$P$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$2:$P$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$D$8:$K$8</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$D$9:$K$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$14:$H$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$14:$H$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -571,6 +561,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -914,6 +909,91 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>The full picture of first histogram</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>The full picture of first histogram</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{69BD1B0A-C899-4726-A513-90A75BBCC466}">
+          <cx:dataPt idx="0">
+            <cx:spPr>
+              <a:noFill/>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="7">
+            <cx:spPr>
+              <a:noFill/>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="14">
+            <cx:spPr>
+              <a:noFill/>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r" underflow="-1" overflow="15">
+              <cx:binSize val="2"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+        <cx:numFmt formatCode="General" sourceLinked="0"/>
+        <cx:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </cx:spPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -994,6 +1074,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
@@ -1503,6 +1623,514 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2014,16 +2642,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254484</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>20291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>273327</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>24847</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>513522</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>198781</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2050,16 +2678,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>414</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>79513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>208516</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50939</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2084,6 +2712,326 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>164821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33128</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="16" name="Chart 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF9BCB7-A061-44D2-8B34-93BA485E1439}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3238500" y="976517"/>
+              <a:ext cx="7139610" cy="3794263"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>140806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>124240</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>182219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C419E5EF-EEFB-4D5D-9C40-82FEA4FEFA18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3776870" y="4497458"/>
+          <a:ext cx="6766892" cy="231913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[0,2)    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>             </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[2,4)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>             </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[4,6)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>             </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[6.8)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[8,10)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[10,12)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>             </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[12,14)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[14,15]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2386,10 +3334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4BF0E6-2675-4ED4-A7A3-FB1618F21966}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,6 +3495,89 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
